--- a/sheets/outdoors-1.xlsx
+++ b/sheets/outdoors-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="bowls" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="solar-lights" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="decor" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="funiture" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="furniture" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="fragrances" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="lanterns" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="cabinets" sheetId="13" state="visible" r:id="rId14"/>
@@ -1430,7 +1430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1458,11 +1458,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1507,7 +1502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1522,10 +1517,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1548,10 +1539,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1617,6 +1608,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4308</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
@@ -1637,6 +1631,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4311</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
@@ -1657,6 +1654,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4314</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>25</v>
       </c>
@@ -1697,11 +1697,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1727,6 +1727,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4347</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>322</v>
       </c>
@@ -1747,6 +1750,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4350</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>327</v>
       </c>
@@ -1767,6 +1773,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4353</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>332</v>
       </c>
@@ -1787,6 +1796,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4356</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>337</v>
       </c>
@@ -1825,10 +1837,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1853,7 +1865,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4359</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>342</v>
       </c>
@@ -1889,10 +1904,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1917,7 +1932,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4362</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>346</v>
       </c>
@@ -1956,10 +1974,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1985,6 +2003,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4365</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>351</v>
       </c>
@@ -2023,10 +2044,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2069,6 +2090,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4368</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>360</v>
       </c>
@@ -2089,6 +2113,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4371</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>365</v>
       </c>
@@ -2109,6 +2136,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4374</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>370</v>
       </c>
@@ -2143,11 +2173,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2173,6 +2203,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4377</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>375</v>
       </c>
@@ -2193,6 +2226,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4380</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>380</v>
       </c>
@@ -2213,10 +2249,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4382</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -2246,13 +2285,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -2341,6 +2380,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4316</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2417,7 +2459,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4319</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
@@ -2437,7 +2482,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4322</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2457,7 +2505,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4325</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2528,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4327</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
@@ -2494,7 +2548,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4330</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2511,6 +2568,75 @@
         <v>81</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://www.ikea.com/us/en/images/products/ragkorn-plant-pot-indoor-outdoor-dark-gray-beige__0635623_pe697304_s5.jpg?f=l"/>
@@ -2539,7 +2665,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2562,7 +2688,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2671,11 +2797,11 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3456,13 +3582,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3487,7 +3613,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4333</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>289</v>
       </c>
@@ -3507,6 +3636,56 @@
         <v>293</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3526,10 +3705,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3554,7 +3733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>294</v>
       </c>
@@ -3593,7 +3772,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3651,10 +3830,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3680,6 +3859,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4335</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>303</v>
       </c>
@@ -3697,6 +3879,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4338</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>307</v>
       </c>
@@ -3717,6 +3902,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4341</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>312</v>
       </c>
@@ -3737,6 +3925,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4344</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>317</v>
       </c>

--- a/sheets/outdoors-1.xlsx
+++ b/sheets/outdoors-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,8 @@
     <sheet name="cabinets" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="air-coolers" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="air-heaters" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="artificial-plants" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="other" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="453">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -324,6 +326,39 @@
     <t xml:space="preserve">https://www.saco.sa/en/All-Saco-Categories/Outdoor-%26-Garden/Lawns-%26-Landscaping/Pots-%26-Planters/Indoor-Planters/Plastic/Cosmoplast-Hexagonal-Flower-Pot-with-Tray-Terracotta-10-Liter/p/000000000000007080</t>
   </si>
   <si>
+    <t xml:space="preserve">Plastic plant pot, natural, 32 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The handles make it easier to move the plant pots.
+A plastic inner pot makes the plant pot waterproof.
+Height: 39 cm
+Outside diameter: 37 cm
+Max. diameter flowerpot: 32 cm
+Inside diameter: 35 cm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.ikea.com.tr/urunler/2000_2000/PE697304.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.ikea.com.tr/urunler/2000_2000/PE721643.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com.tr/en/product/ragkorn-natural-32-cm-plastic-plant-pot-40407559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor Water Fountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains a water reservoir to keep water flowing. Powered by Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR WATER FOUNTAIN WITH POTS &amp; WHEEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR WATER FOUNTAIN WITH POTS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Floor decking, outdoor, artificial grass, 0.81 m² (9 sq feet)</t>
   </si>
   <si>
@@ -1224,6 +1259,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ikea.is/en/products/tables-desks/high-tables/high-tables/haverud-table-with-storage-ladder-art-40504254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table with storage ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether sitting, standing, working, dining or crafting, this space-saving counter height table serves your needs from morning meetings to evening mingle. The storage ladder keeps everything you need handy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ikea.azureedge.net/images/1860x1860/3/variantimages/40504254/0.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ikea.azureedge.net/images/1860x1860/1/variantimages/40504254/9.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.gr/en/products/chairs/bar-stools-tables/haverud-table-with-storage-ladder/40504254/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine Barrel Bar Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Wine Barrel Table with Hardwood Top is created with a reclaimed wine barrel. It is then refined and reinforced with no fillers or veneers. Hardwood tops are solid, 2″ thick, quarter-sawn hardwood. Optional foot rail and riser allow you to create your perfect Wine Barrel Table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://theoakbarrelcompany.com/product/full-barrel-bistro-table/</t>
   </si>
   <si>
     <t xml:space="preserve">Retyion Retro Portable Iron Mosquito Coil Holder with Handle</t>
@@ -1422,6 +1481,239 @@
   <si>
     <t xml:space="preserve">https://climateplus.ae/Shop/patio-heaters/cph-msstb-stainless-steel-mushroom-patio-heater/</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hanover 5118-BTU 120-Volt Silver/Black Steel Electric Patio Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 35.4-in wide electric carbon infrared heat lamp includes sturdy tripod stand
+    - Tripod expandable and collapsible for easy transport and set up
+    - Designed for use on your patio, porch, balcony, garage, workshop, and more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/701208a1-a5df-48ce-9da8-43ba37664fa5/14613960.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/5e466733-7b02-4bed-8b85-bc19bdbdcfd7/16166424.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lowes.com/pd/Hanover-35-4-in-Wide-Electric-Carbon-Infrared-Heat-Lamp-with-Remote-Control-and-Tripod-Stand-Silver-Black/1002298058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Plants Green Spiral Cypress Tree Potted Plant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Crafted with quality and detail in mind this stunning cedar silk tree will brighten up any space
+Artificial Cypress Spiral Trees 3Feet High</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">35inch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, This Is A Great Gift, Beautifully Packaged, Perfect For Giving Friends.Its Made Of Environmentally Friendly Materials ,2 PACK
+Always Forget Watering Your Lovely Plant Tired Of Dead PlantsTry This! Skip The Hassle Of Watering, Fertilizing And Pruning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You Don'T Have To Worry About It Will Wither</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/61RDdx15J3L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/81oJABFwm6L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/dp/B0BG1LJ412/ref=sspa_dk_detail_5?psc=1&amp;pd_rd_i=B0BG1LJ412&amp;pd_rd_w=xrh4V&amp;content-id=amzn1.sym.6cd291bc-24bd-4f63-88a8-56ebf04b9b6e&amp;pf_rd_p=6cd291bc-24bd-4f63-88a8-56ebf04b9b6e&amp;pf_rd_r=NVWPGXG0WV3T1J8YM679&amp;pd_rd_wg=Sq11X&amp;pd_rd_r=1118faa9-4d6d-48ab-8968-890c74e78a60&amp;s=kitchen&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWwy&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExTUdFSTJRQlNCODk3JmVuY3J5cHRlZElkPUEwMjEyNjk5MkRQNkpWRDZQUlNKUSZlbmNyeXB0ZWRBZElkPUEwMzk1NzYxMzBGUVpYSEFLWFpUSyZ3aWRnZXROYW1lPXNwX2RldGFpbDImYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sojag 135-in x 109-in Dakota Brown Gazebo Screen Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Made of polyester
+    - Brown
+    - Compatible with the Sojag Dakota 10x12 ft sun shelter only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/bc179b91-8d96-4bc9-a63c-f1121fd0e353/11902660.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/907b6d9a-d408-40e3-a345-47e8856bc072/11902658.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lowes.com/pd/Sojag-Curtains-for-Dakota-10-x-12-ft-Brown-Gazebo-Not-Included/1001224484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made of Matel, Hard wood &amp; Bamboo with 4 sits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutDoor Umbrella – 330cm diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditionally elegant parasols provide shade and comfort. The wide range of Woodline and Aluline sunshades and accessories are all made with careful attention to detail. These luxurious and attractive parasols are made from varnished eucalyptus wood or powder coated aluminium.
+330 cm diameter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fischer-moebel.de/bilder-und-dateien/artikel/vorschau-produktuebersicht/artikelbild-6330.jpg?x=2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fischer-moebel.de/en/products/schirme/aluline/sonnenschirme.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutDoor Umbrella – 300cm diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://designwarehouse.co.nz/wp-content/uploads/2017/07/bahama-4.5-m-square-taupe-698x698.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://designwarehouse.co.nz/furniture/bahama-cantilever-umbrella-square-4-5m-taupe/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutDoor Umbrella – 3.2m X 3.2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobileimages.lowes.com/productimages/459439d6-2248-4aba-841d-dfd79a85ac91/43516446.jpg?size=pdhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK+DECKER BV5600 High Performance Blower/Vac/Mulcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Black + Decker
+Colour: 	black
+Power Source: 	Corded Electric
+Voltage: 	120 Volts
+Noise Level: 	68 dB
+Included Components: 	Blow Tube, Leafblaster Nozzle, Vacuum Tube, Bv5600 Motor Head, Concentrator, Bag Assembly, Black &amp; Decker Bv5600 High Performance Blower/Vac/MulcherBlow Tube, Leafblaster Nozzle, Vacuum Tube, Bv5600 Motor Head, Concentrator, Bag Assembly, Black &amp; Decker Bv5600 High Performance 
+Item Weight: 	8.1 Pounds
+Maximum Speed: 	250 Miles per Hour
+Style: 	Blower/Vac
+Item Dimensions LxWxH: 	39.7 x 52.7 x 25.1 Centimeters
+    The 12 amp motor operates a 3-in-1 blower, vacuum and mulcher all in one
+    250 mph blower with 2 Speed selections
+    Can grind up to 16 bags of mulch down to one
+    Easy-change between vacuum and blower, Decibel : 68 dBA
+    2 Speed selections for flower beds and powerful enough for matted leaves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61RpwRolsTL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51m4ehAzkLL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/BLACK-DECKER-BV5600-Performance-Mulcher/dp/B00FREQBXE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOVS 600W Solar Light Outdoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comes with a remote IP67 Protection 72000 lumens &amp; inbuilt battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor Fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Stainless Steel Outdoor Pathway Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let these classic, solar-powered outdoor lights illuminate your landscaping during any seasin. These LED solar lights use power from the sun to brighten your garden at night. Not only will your garden look beautiful but solar lights also give you a little extra security as well.
+This solar garden light is the perfect way to outline your garden path, front entrance way, or to highlight the contours of your garden bed. There are so many creative ways to use these solar powered outdoor lights that you may want more than just one set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lino.lk/wp-content/uploads/2018/11/Stainless-Steel-Solar-Garden-Lights-01.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lino.lk/wp-content/uploads/2018/11/Stainless-Steel-Solar-Garden-Lights-02.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lino.lk/product/stainless-steel-solar-garden-lights/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led High Cocktail Bar Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensions:
+D600mm x D400mm x H1100mm.
+16 RGB Colors Changing.
+Fully charged is working for 5 to 8 hours.
+Suitable for outdoor conditions.
+Remote control could be used on several LED devices.
+Remote control working distance 5 to 10 meters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://liramta.lt/wp-content/uploads/2018/03/unnamed-file.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://liramta.lt/en/produktas/colors-changing-led-light-up-high-cocktail-bar-table/#prettyPhoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Garden Grace Outdoor Floor Lamp - White 140cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/31OhWDuSX5S._AC_SL1385_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61thK0QIiEL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/Garden-Grace-Outdoor-Floor-Lamp/dp/B07D4FT4LX</t>
+  </si>
 </sst>
 </file>
 
@@ -1430,7 +1722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1456,6 +1748,12 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1538,11 +1836,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1695,13 +1993,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1731,22 +2029,22 @@
         <v>4347</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,22 +2052,22 @@
         <v>4350</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,22 +2075,22 @@
         <v>4353</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1500000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,22 +2098,56 @@
         <v>4356</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3000000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>341</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1836,11 +2168,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1870,19 +2202,19 @@
         <v>4359</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -1903,11 +2235,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1937,22 +2269,22 @@
         <v>4362</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -1973,11 +2305,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2007,22 +2339,22 @@
         <v>4365</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2043,11 +2375,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2074,19 +2406,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,22 +2426,22 @@
         <v>4368</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,22 +2449,22 @@
         <v>4371</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,19 +2472,19 @@
         <v>4374</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2173,11 +2505,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2207,68 +2539,388 @@
         <v>4377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>4380</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4382</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1800000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5058</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5061</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5064</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5065</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5067</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5069</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5071</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5074</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5075</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5076</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5079</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5081</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5084</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2287,11 +2939,11 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -2568,8 +3220,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+    </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2659,14 +3332,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2684,11 +3425,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2718,19 +3459,19 @@
         <v>3597</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,22 +3479,22 @@
         <v>3600</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,22 +3502,22 @@
         <v>3603</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2797,11 +3538,11 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2828,742 +3569,742 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3584,11 +4325,11 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3618,22 +4359,22 @@
         <v>4333</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3704,11 +4445,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3735,19 +4476,19 @@
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3768,11 +4509,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3799,16 +4540,16 @@
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3829,11 +4570,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3863,19 +4604,19 @@
         <v>4335</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,22 +4624,22 @@
         <v>4338</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,22 +4647,22 @@
         <v>4341</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,22 +4670,22 @@
         <v>4344</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/outdoors-1.xlsx
+++ b/sheets/outdoors-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="448">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -324,27 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.saco.sa/en/All-Saco-Categories/Outdoor-%26-Garden/Lawns-%26-Landscaping/Pots-%26-Planters/Indoor-Planters/Plastic/Cosmoplast-Hexagonal-Flower-Pot-with-Tray-Terracotta-10-Liter/p/000000000000007080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic plant pot, natural, 32 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The handles make it easier to move the plant pots.
-A plastic inner pot makes the plant pot waterproof.
-Height: 39 cm
-Outside diameter: 37 cm
-Max. diameter flowerpot: 32 cm
-Inside diameter: 35 cm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.ikea.com.tr/urunler/2000_2000/PE697304.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.ikea.com.tr/urunler/2000_2000/PE721643.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com.tr/en/product/ragkorn-natural-32-cm-plastic-plant-pot-40407559</t>
   </si>
   <si>
     <t xml:space="preserve">Outdoor Water Fountain</t>
@@ -1836,11 +1815,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1995,11 +1974,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2029,22 +2008,22 @@
         <v>4347</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,22 +2031,22 @@
         <v>4350</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,22 +2054,22 @@
         <v>4353</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1500000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,56 +2077,56 @@
         <v>4356</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3000000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3000000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2168,11 +2147,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2202,19 +2181,19 @@
         <v>4359</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2235,11 +2214,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2269,22 +2248,22 @@
         <v>4362</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2305,11 +2284,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2339,22 +2318,22 @@
         <v>4365</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2375,11 +2354,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2406,19 +2385,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,22 +2405,22 @@
         <v>4368</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,22 +2428,22 @@
         <v>4371</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,19 +2451,19 @@
         <v>4374</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2505,11 +2484,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2539,22 +2518,22 @@
         <v>4377</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2562,22 +2541,22 @@
         <v>4380</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2585,19 +2564,19 @@
         <v>4382</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1800000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2605,22 +2584,22 @@
         <v>5058</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2641,11 +2620,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2675,22 +2654,22 @@
         <v>5061</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2711,11 +2690,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2745,19 +2724,19 @@
         <v>5064</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,10 +2744,10 @@
         <v>5065</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,16 +2755,16 @@
         <v>5067</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,13 +2772,13 @@
         <v>5069</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +2786,10 @@
         <v>5071</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2818,22 +2797,22 @@
         <v>5074</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +2820,10 @@
         <v>5075</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>900000</v>
@@ -2855,10 +2834,10 @@
         <v>5076</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2866,19 +2845,19 @@
         <v>5079</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2886,19 +2865,19 @@
         <v>5081</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,19 +2885,19 @@
         <v>5084</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2200000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2939,11 +2918,11 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -3221,24 +3200,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>300000</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>86</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
@@ -3334,11 +3296,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3364,44 +3326,56 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5305</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3500000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5306</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2500000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5307</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>4000000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5308</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2000000</v>
@@ -3425,11 +3399,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3459,19 +3433,19 @@
         <v>3597</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,22 +3453,22 @@
         <v>3600</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,22 +3476,22 @@
         <v>3603</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1000000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3538,11 +3512,11 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3569,742 +3543,742 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4325,11 +4299,11 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4359,22 +4333,22 @@
         <v>4333</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4445,11 +4419,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4475,20 +4449,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4899</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4509,11 +4486,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4538,18 +4515,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="94.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>4901</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4570,11 +4550,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4604,19 +4584,19 @@
         <v>4335</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,22 +4604,22 @@
         <v>4338</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,22 +4627,22 @@
         <v>4341</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,22 +4650,22 @@
         <v>4344</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/outdoors-1.xlsx
+++ b/sheets/outdoors-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="baskets" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="453">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1255,7 +1255,7 @@
     <t xml:space="preserve">https://www.ikea.gr/en/products/chairs/bar-stools-tables/haverud-table-with-storage-ladder/40504254/</t>
   </si>
   <si>
-    <t xml:space="preserve">Wine Barrel Bar Table</t>
+    <t xml:space="preserve">Wine Barrel, Bar Table</t>
   </si>
   <si>
     <t xml:space="preserve">Our Wine Barrel Table with Hardwood Top is created with a reclaimed wine barrel. It is then refined and reinforced with no fillers or veneers. Hardwood tops are solid, 2″ thick, quarter-sawn hardwood. Optional foot rail and riser allow you to create your perfect Wine Barrel Table.</t>
@@ -1692,6 +1692,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.de/-/en/Garden-Grace-Outdoor-Floor-Lamp/dp/B07D4FT4LX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watering Can, 10 Liter Capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong carrying capacity, non-toxic, not easy to break and crack, smooth and delicate, handle thickened design and comfortable grip. Humanized handle, anti-sliding design, long-term grip is not tired, increase the water injection port, convenient for quick irrigation, saving time and effort. Simple and stylish, safe material, convenient and durable, the mouthpiece is designed with large mouth, convenient for water connection and not easy to leak. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microless.com/cdn/products/a573372ec1739c37f2d0f606a8a62ca2-hi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microless.com/cdn/products/0e9c7e3e632687ec2f57ecf68396a47f-hi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qatar.microless.com/product/abbasali-watering-can-10-liter-capacity-detachable-nozzle-equipment-suitable-for-indoor-outdoor-comfortable-grip-green-b0b7g8f47t/</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1834,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1974,11 +1989,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2096,6 +2111,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>4356</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>346</v>
       </c>
@@ -2116,6 +2134,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5495</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>351</v>
       </c>
@@ -2151,7 +2172,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2218,7 +2239,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2288,7 +2309,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2358,7 +2379,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2488,7 +2509,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2624,7 +2645,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2688,13 +2709,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2898,6 +2919,26 @@
       </c>
       <c r="G12" s="0" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5501</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2963,7 @@
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.84"/>
   </cols>
@@ -3300,7 +3341,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3403,7 +3444,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3516,7 +3557,7 @@
       <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4303,7 +4344,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4423,7 +4464,7 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4490,7 +4531,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4550,11 +4591,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
